--- a/biology/Zoologie/Contrafacia/Contrafacia.xlsx
+++ b/biology/Zoologie/Contrafacia/Contrafacia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrafacia est un genre d'insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit par Kurt Johnson (d) en 1989.
 </t>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contrafacia ahola (Hewitson, 1867) présent en Colombie, en Équateur, au Mexique et au Venezuela
 Contrafacia bassania (Hewitson, 1868) présent au Mexique
 Contrafacia francis (Weeks, 1901) présent en Argentine et en Bolivie
 Contrafacia imma (Prittwitz, 1865) présent en Argentine, au Brésil, en Colombie, en Équateur, au Guatemala, au Guyana, en Guyane, au Mexique, au Paraguay, au Surinam et au Venezuela
 Contrafacia marmoris (Druce, 1907) présent en Colombie et au Venezuela
-Contrafacia muattina (Schaus, 1902) présent au Brésil[1],[2].</t>
+Contrafacia muattina (Schaus, 1902) présent au Brésil,.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Contrafacia sont présents en Amérique centrale et Amérique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Contrafacia sont présents en Amérique centrale et Amérique du Sud.
 Sur les autres projets Wikimedia :
 Contrafacia, sur Wikimedia CommonsContrafacia, sur Wikispecies
 </t>
